--- a/Py_functionality_libs/Py_pandas/py_panda_columns_treating/py_columns_init.xlsx
+++ b/Py_functionality_libs/Py_pandas/py_panda_columns_treating/py_columns_init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SergeiSmirnov\DiskD\Projects\PrivateTestProject\testGit\git1\Test_Task\Py_functionality_libs\Py_pandas\py_panda_columns_treating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF737151-A435-47F8-99B6-9DD000D6AB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59C8ED2-178E-49AF-A94A-403FF2740B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EE4EA17B-3CAE-4BC9-807A-FC5B2FAC821A}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,9 +542,6 @@
       <c r="C4">
         <v>-5</v>
       </c>
-      <c r="D4">
-        <v>-11</v>
-      </c>
       <c r="E4">
         <v>-17</v>
       </c>
@@ -567,9 +564,6 @@
       </c>
       <c r="D5">
         <v>-22</v>
-      </c>
-      <c r="E5">
-        <v>-33</v>
       </c>
       <c r="F5">
         <v>-44</v>

--- a/Py_functionality_libs/Py_pandas/py_panda_columns_treating/py_columns_init.xlsx
+++ b/Py_functionality_libs/Py_pandas/py_panda_columns_treating/py_columns_init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SergeiSmirnov\DiskD\Projects\PrivateTestProject\testGit\git1\Test_Task\Py_functionality_libs\Py_pandas\py_panda_columns_treating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59C8ED2-178E-49AF-A94A-403FF2740B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{835C93E7-7BA7-4EA7-9EBF-8E633EE72652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EE4EA17B-3CAE-4BC9-807A-FC5B2FAC821A}"/>
+    <workbookView xWindow="14208" yWindow="-11508" windowWidth="14400" windowHeight="7272" xr2:uid="{EE4EA17B-3CAE-4BC9-807A-FC5B2FAC821A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Subject</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Subject7</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,8 +602,8 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>-2</v>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
       <c r="C7">
         <v>-23</v>
